--- a/Checklist-withFormula.xlsx
+++ b/Checklist-withFormula.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_users\stduser\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caolegiaphu/Desktop/ProjectDSA-Sorting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACC6A11-86EA-4895-A1E9-9B81115C03ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F0A40B-5156-624A-A535-C3DCE8B05114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8CE66FDF-E979-4E9F-A8C3-831D61C41828}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17620" xr2:uid="{8CE66FDF-E979-4E9F-A8C3-831D61C41828}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="3" r:id="rId1"/>
@@ -313,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -328,9 +328,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -347,9 +344,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -357,15 +381,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -374,31 +389,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -732,41 +726,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D07BC3-C8CB-4F03-A421-F70981A8BB46}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="8" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="17" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -776,461 +771,460 @@
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="1">
-        <v>5678</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="H2" s="9">
+        <v>23127535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="1">
-        <v>1234</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="9">
+        <v>23127535</v>
+      </c>
+      <c r="D3" s="9">
+        <v>23127535</v>
+      </c>
+      <c r="E3" s="9">
+        <v>23127535</v>
+      </c>
+      <c r="F3" s="22"/>
       <c r="G3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="1">
-        <v>5678</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="H3" s="9">
+        <v>23127535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="1">
-        <v>1234</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F4" s="19"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="9">
+        <v>23127535</v>
+      </c>
+      <c r="D4" s="9">
+        <v>23127535</v>
+      </c>
+      <c r="E4" s="9">
+        <v>23127535</v>
+      </c>
+      <c r="F4" s="22"/>
       <c r="G4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="1">
-        <v>5678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="1">
-        <v>1234</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F5" s="19"/>
+      <c r="H4" s="9">
+        <v>23127535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="9">
+        <v>23127535</v>
+      </c>
+      <c r="D5" s="9">
+        <v>23127535</v>
+      </c>
+      <c r="E5" s="9">
+        <v>23127535</v>
+      </c>
+      <c r="F5" s="22"/>
       <c r="G5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="1">
-        <v>5678</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="H5" s="9">
+        <v>23127535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="1">
-        <v>1234</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F6" s="19"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="9">
+        <v>23127528</v>
+      </c>
+      <c r="D6" s="9">
+        <v>23127528</v>
+      </c>
+      <c r="E6" s="9">
+        <v>23127528</v>
+      </c>
+      <c r="F6" s="22"/>
       <c r="G6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="1">
-        <v>5678</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="1">
-        <v>1234</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="H6" s="9">
+        <v>23127535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="9">
+        <v>23127528</v>
+      </c>
+      <c r="D7" s="9">
+        <v>23127528</v>
+      </c>
+      <c r="E7" s="9">
+        <v>23127528</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="1">
-        <v>1234</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="17" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="9">
+        <v>23127533</v>
+      </c>
+      <c r="D8" s="9">
+        <v>23127533</v>
+      </c>
+      <c r="E8" s="9">
+        <v>23127533</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="1">
-        <v>1234</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F9" s="19"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="9">
+        <v>23127533</v>
+      </c>
+      <c r="D9" s="9">
+        <v>23127533</v>
+      </c>
+      <c r="E9" s="9">
+        <v>23127533</v>
+      </c>
+      <c r="F9" s="22"/>
       <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="1">
-        <v>4321</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="H9" s="9">
+        <v>23127390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="1">
-        <v>1234</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F10" s="19"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="9">
+        <v>23127533</v>
+      </c>
+      <c r="D10" s="9">
+        <v>23127533</v>
+      </c>
+      <c r="E10" s="9">
+        <v>23127533</v>
+      </c>
+      <c r="F10" s="22"/>
       <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="1">
-        <v>4321</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="H10" s="9">
+        <v>23127390</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="1">
-        <v>1234</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F11" s="19"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="9">
+        <v>23127390</v>
+      </c>
+      <c r="D11" s="9">
+        <v>23127390</v>
+      </c>
+      <c r="E11" s="9">
+        <v>23127390</v>
+      </c>
+      <c r="F11" s="22"/>
       <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="1">
-        <v>4321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="H11" s="9">
+        <v>23127533</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="1">
-        <v>1234</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F12" s="19"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="9">
+        <v>23127390</v>
+      </c>
+      <c r="D12" s="9">
+        <v>23127390</v>
+      </c>
+      <c r="E12" s="9">
+        <v>23127390</v>
+      </c>
+      <c r="F12" s="22"/>
       <c r="G12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="1">
-        <v>4321</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="H12" s="9">
+        <v>23127533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="1">
-        <v>1234</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F13" s="19"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="9">
+        <v>23127390</v>
+      </c>
+      <c r="D13" s="9">
+        <v>23127390</v>
+      </c>
+      <c r="E13" s="9">
+        <v>23127390</v>
+      </c>
+      <c r="F13" s="22"/>
       <c r="G13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="1">
-        <v>4321</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="H13" s="9">
+        <v>23127533</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="1">
-        <v>1234</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="9">
+        <v>23127390</v>
+      </c>
+      <c r="D14" s="9">
+        <v>23127390</v>
+      </c>
+      <c r="E14" s="9">
+        <v>23127390</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="9"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="8"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="8"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="1">
-        <v>8765</v>
-      </c>
-      <c r="D18" s="1">
-        <v>8765</v>
-      </c>
-      <c r="E18" s="9"/>
+      <c r="C18" s="9">
+        <v>23127390</v>
+      </c>
+      <c r="D18" s="9">
+        <v>23127535</v>
+      </c>
+      <c r="E18" s="8"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+    <row r="19" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="1">
-        <v>8765</v>
-      </c>
-      <c r="D19" s="1">
-        <v>8765</v>
-      </c>
-      <c r="E19" s="9"/>
+      <c r="C19" s="9">
+        <v>23127533</v>
+      </c>
+      <c r="D19" s="9">
+        <v>23127535</v>
+      </c>
+      <c r="E19" s="8"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+    <row r="20" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
       <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="1">
-        <v>8765</v>
-      </c>
-      <c r="D20" s="1">
-        <v>8765</v>
-      </c>
-      <c r="E20" s="9"/>
+      <c r="C20" s="9">
+        <v>23127390</v>
+      </c>
+      <c r="D20" s="9">
+        <v>23127535</v>
+      </c>
+      <c r="E20" s="8"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+    <row r="21" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="1">
-        <v>8765</v>
-      </c>
-      <c r="D21" s="1">
-        <v>8765</v>
-      </c>
-      <c r="E21" s="9"/>
+      <c r="C21" s="9">
+        <v>23127390</v>
+      </c>
+      <c r="D21" s="9">
+        <v>23127528</v>
+      </c>
+      <c r="E21" s="8"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="1">
-        <v>8765</v>
-      </c>
-      <c r="D22" s="1">
-        <v>8765</v>
-      </c>
-      <c r="E22" s="9"/>
+      <c r="C22" s="9">
+        <v>23127533</v>
+      </c>
+      <c r="D22" s="9">
+        <v>23127528</v>
+      </c>
+      <c r="E22" s="8"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+    <row r="23" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="1">
-        <v>8765</v>
-      </c>
-      <c r="D23" s="1">
-        <v>8765</v>
-      </c>
-      <c r="E23" s="9"/>
+      <c r="C23" s="9">
+        <v>23127390</v>
+      </c>
+      <c r="D23" s="9">
+        <v>23127535</v>
+      </c>
+      <c r="E23" s="8"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+    <row r="24" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="1">
-        <v>8765</v>
-      </c>
-      <c r="D24" s="1">
-        <v>8765</v>
-      </c>
-      <c r="E24" s="9"/>
+      <c r="C24" s="9">
+        <v>23127390</v>
+      </c>
+      <c r="D24" s="9">
+        <v>23127535</v>
+      </c>
+      <c r="E24" s="8"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+    <row r="25" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="1">
-        <v>8765</v>
-      </c>
-      <c r="D25" s="1">
-        <v>8765</v>
-      </c>
-      <c r="E25" s="9"/>
+      <c r="C25" s="9">
+        <v>23127390</v>
+      </c>
+      <c r="D25" s="9">
+        <v>23127535</v>
+      </c>
+      <c r="E25" s="8"/>
       <c r="J25"/>
     </row>
-    <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="11" t="s">
+    <row r="28" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="9"/>
+      <c r="I28" s="8"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B29" s="10">
-        <v>1234</v>
-      </c>
-      <c r="C29" s="12" t="s">
+    <row r="29" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="B29" s="9">
+        <v>23127390</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I29" s="9"/>
+      <c r="I29" s="8"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B30" s="10">
-        <v>5678</v>
-      </c>
-      <c r="I30" s="9"/>
+    <row r="30" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="B30" s="9">
+        <v>23127528</v>
+      </c>
+      <c r="I30" s="8"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B31" s="10">
-        <v>4321</v>
-      </c>
-      <c r="I31" s="9"/>
+    <row r="31" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="B31" s="9">
+        <v>23127533</v>
+      </c>
+      <c r="I31" s="8"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B32" s="10">
-        <v>8765</v>
-      </c>
-      <c r="I32" s="9"/>
+    <row r="32" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="B32" s="9">
+        <v>23127535</v>
+      </c>
+      <c r="I32" s="8"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I33" s="9"/>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I33" s="8"/>
       <c r="J33"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:F14"/>
     <mergeCell ref="G1:H1"/>
@@ -1253,6 +1247,7 @@
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1266,35 +1261,35 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="17" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1304,7 +1299,7 @@
       <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="6" t="s">
         <v>30</v>
       </c>
@@ -1312,11 +1307,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="1">
         <v>5</v>
       </c>
@@ -1326,7 +1321,7 @@
       <c r="E3" s="1">
         <v>10</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="6" t="s">
         <v>31</v>
       </c>
@@ -1334,11 +1329,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="1">
         <v>5</v>
       </c>
@@ -1348,7 +1343,7 @@
       <c r="E4" s="1">
         <v>10</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="6" t="s">
         <v>32</v>
       </c>
@@ -1356,11 +1351,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="18"/>
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="21"/>
       <c r="C5" s="1">
         <v>5</v>
       </c>
@@ -1370,7 +1365,7 @@
       <c r="E5" s="1">
         <v>10</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="6" t="s">
         <v>33</v>
       </c>
@@ -1378,11 +1373,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
@@ -1392,7 +1387,7 @@
       <c r="E6" s="1">
         <v>10</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="6" t="s">
         <v>34</v>
       </c>
@@ -1400,11 +1395,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="30"/>
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16"/>
       <c r="C7" s="1">
         <v>5</v>
       </c>
@@ -1414,15 +1409,15 @@
       <c r="E7" s="1">
         <v>10</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="1">
         <v>5</v>
       </c>
@@ -1432,17 +1427,17 @@
       <c r="E8" s="1">
         <v>10</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="17" t="s">
+      <c r="F8" s="22"/>
+      <c r="G8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="1">
         <v>5</v>
       </c>
@@ -1452,7 +1447,7 @@
       <c r="E9" s="1">
         <v>10</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
@@ -1460,11 +1455,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1474,7 +1469,7 @@
       <c r="E10" s="1">
         <v>10</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
@@ -1482,11 +1477,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -1496,7 +1491,7 @@
       <c r="E11" s="1">
         <v>10</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
@@ -1504,11 +1499,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="1">
         <v>5</v>
       </c>
@@ -1518,7 +1513,7 @@
       <c r="E12" s="1">
         <v>10</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="7" t="s">
         <v>26</v>
       </c>
@@ -1526,11 +1521,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="1">
         <v>5</v>
       </c>
@@ -1540,7 +1535,7 @@
       <c r="E13" s="1">
         <v>10</v>
       </c>
-      <c r="F13" s="19"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="7" t="s">
         <v>27</v>
       </c>
@@ -1548,11 +1543,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="30"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="1">
         <v>5</v>
       </c>
@@ -1562,40 +1557,40 @@
       <c r="E14" s="1">
         <v>10</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="F14" s="22"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-    </row>
-    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1608,8 +1603,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1620,8 +1615,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
       <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1627,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1644,8 +1639,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1658,8 +1653,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1670,8 +1665,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1682,8 +1677,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1694,57 +1689,56 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
+    <row r="28" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
         <f>Students!B29</f>
-        <v>1234</v>
-      </c>
-      <c r="B28" s="11">
+        <v>23127390</v>
+      </c>
+      <c r="B28" s="10">
         <f>SUMIFS($C$3:$E$14,Students!$C$3:$E$14,Grader!$A28)+SUMIFS($H$2:$H$6,Students!$H$2:$H$6,Grader!$A28)+SUMIFS($H$9:$H$13,Students!$H$9:$H$13,Grader!$A28)+SUMIFS($C$18:$D$25,Students!$C$18:$D$25,Grader!$A28)</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
         <f>Students!B30</f>
-        <v>5678</v>
-      </c>
-      <c r="B29" s="11">
+        <v>23127528</v>
+      </c>
+      <c r="B29" s="10">
         <f>SUMIFS($C$3:$E$14,Students!$C$3:$E$14,Grader!$A29)+SUMIFS($H$2:$H$6,Students!$H$2:$H$6,Grader!$A29)+SUMIFS($H$9:$H$13,Students!$H$9:$H$13,Grader!$A29)+SUMIFS($C$18:$D$25,Students!$C$18:$D$25,Grader!$A29)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
         <f>Students!B31</f>
-        <v>4321</v>
-      </c>
-      <c r="B30" s="11">
+        <v>23127533</v>
+      </c>
+      <c r="B30" s="10">
         <f>SUMIFS($C$3:$E$14,Students!$C$3:$E$14,Grader!$A30)+SUMIFS($H$2:$H$6,Students!$H$2:$H$6,Grader!$A30)+SUMIFS($H$9:$H$13,Students!$H$9:$H$13,Grader!$A30)+SUMIFS($C$18:$D$25,Students!$C$18:$D$25,Grader!$A30)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
         <f>Students!B32</f>
-        <v>8765</v>
-      </c>
-      <c r="B31" s="11">
+        <v>23127535</v>
+      </c>
+      <c r="B31" s="10">
         <f>SUMIFS($C$3:$E$14,Students!$C$3:$E$14,Grader!$A31)+SUMIFS($H$2:$H$6,Students!$H$2:$H$6,Grader!$A31)+SUMIFS($H$9:$H$13,Students!$H$9:$H$13,Grader!$A31)+SUMIFS($C$18:$D$25,Students!$C$18:$D$25,Grader!$A31)</f>
-        <v>120</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:F14"/>
     <mergeCell ref="G1:H1"/>
@@ -1767,6 +1761,7 @@
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1793,7 +1788,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C18:D25 C3:E14 H2:H6 H9:H13</xm:sqref>
+          <xm:sqref>H2:H6 C3:E14 H9:H13 C18:D25</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1809,35 +1804,35 @@
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="17" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1847,19 +1842,19 @@
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="1">
         <v>5</v>
       </c>
@@ -1869,19 +1864,19 @@
       <c r="E3" s="3">
         <v>10</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="1">
         <v>5</v>
       </c>
@@ -1891,19 +1886,19 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="18"/>
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="21"/>
       <c r="C5" s="1">
         <v>5</v>
       </c>
@@ -1913,19 +1908,19 @@
       <c r="E5" s="3">
         <v>10</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
@@ -1935,19 +1930,19 @@
       <c r="E6" s="3">
         <v>10</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="30"/>
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16"/>
       <c r="C7" s="1">
         <v>5</v>
       </c>
@@ -1957,15 +1952,15 @@
       <c r="E7" s="3">
         <v>10</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="1">
         <v>5</v>
       </c>
@@ -1975,17 +1970,17 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="17" t="s">
+      <c r="F8" s="22"/>
+      <c r="G8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="1">
         <v>5</v>
       </c>
@@ -1995,7 +1990,7 @@
       <c r="E9" s="3">
         <v>10</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
@@ -2003,11 +1998,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -2017,7 +2012,7 @@
       <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
@@ -2025,11 +2020,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -2039,7 +2034,7 @@
       <c r="E11" s="3">
         <v>10</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
@@ -2047,11 +2042,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="1">
         <v>5</v>
       </c>
@@ -2061,7 +2056,7 @@
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="7" t="s">
         <v>26</v>
       </c>
@@ -2069,11 +2064,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="1">
         <v>5</v>
       </c>
@@ -2083,7 +2078,7 @@
       <c r="E13" s="3">
         <v>10</v>
       </c>
-      <c r="F13" s="19"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="1" t="s">
         <v>27</v>
       </c>
@@ -2091,11 +2086,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="30"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="1">
         <v>5</v>
       </c>
@@ -2105,47 +2100,47 @@
       <c r="E14" s="1">
         <v>10</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="F14" s="22"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2159,10 +2154,10 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="31"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
@@ -2176,8 +2171,8 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
       <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
@@ -2191,8 +2186,8 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
@@ -2206,8 +2201,8 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2223,8 +2218,8 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
@@ -2238,8 +2233,8 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
@@ -2253,8 +2248,8 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
@@ -2270,7 +2265,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A18:A21"/>
@@ -2293,6 +2287,7 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
